--- a/TestData/Activities_page.xlsx
+++ b/TestData/Activities_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA33E8-DE53-4812-A818-F22516ED521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB085D-AA25-4C55-B583-A72982A3CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
